--- a/01_Requirements/LedgerTypes/017_Current Account- Firm.xlsx
+++ b/01_Requirements/LedgerTypes/017_Current Account- Firm.xlsx
@@ -231,69 +231,69 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,254 +581,264 @@
   </sheetPr>
   <dimension ref="D2:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="60.28515625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="6"/>
-      <c r="I4" s="7" t="s">
+      <c r="D4" s="2"/>
+      <c r="I4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="D6" s="2"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D9" s="9"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D11" s="6"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
+      <c r="D13" s="2"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="D17" s="2"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
+      <c r="D22" s="2"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
-      <c r="D23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="28" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="I4:J24"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="D26:J26"/>
     <mergeCell ref="D28:J28"/>
@@ -839,16 +849,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="I4:J24"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
